--- a/Compare columns excel/Compare-two-columns-excel.xlsx
+++ b/Compare columns excel/Compare-two-columns-excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/jakob_f_norregaard_accenture_com/Documents/Desktop/Tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/jakob_f_norregaard_accenture_com/Documents/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8737A5B5-66F7-484D-867F-F13B0E189449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{8737A5B5-66F7-484D-867F-F13B0E189449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5881F6E0-925F-467C-B1D8-8E4633D40F14}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{ECFD3DC0-7575-4474-93DE-65ECC949E37E}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="str">
-        <f>IF(COUNTIF($B:$B, A2)=0, "Item in cloumn A is missing in column B", "Item exists in both lists")</f>
+        <f>IF(COUNTIF($B:$B, A2)=0, "Item in column A is missing in column B", "Item exists in both lists")</f>
         <v>Item exists in both lists</v>
       </c>
     </row>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C8" si="0">IF(COUNTIF($B:$B, A3)=0, "Item in cloumn A is missing in column B", "Item exists in both lists")</f>
+        <f t="shared" ref="C3:C8" si="0">IF(COUNTIF($B:$B, A3)=0, "Item in column A is missing in column B", "Item exists in both lists")</f>
         <v>Item exists in both lists</v>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>Item in cloumn A is missing in column B</v>
+        <v>Item in column A is missing in column B</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -536,7 +536,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>Item in cloumn A is missing in column B</v>
+        <v>Item in column A is missing in column B</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
